--- a/docs/arm.xlsx
+++ b/docs/arm.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edge\logs\2023-11-14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C851BA0E-FAE0-4616-9AF5-9800DB39EEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9DBA25-C8CB-4B8A-9D82-74F5621DC0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arm" sheetId="1" r:id="rId1"/>
+    <sheet name="barriers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>NumThr</t>
   </si>
@@ -39,11 +53,26 @@
   <si>
     <t>4-CPU ARM Cortex A76</t>
   </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>r&amp;w:cst</t>
+  </si>
+  <si>
+    <t>r:acq/w:rel</t>
+  </si>
+  <si>
+    <t>r:cons/w:rel</t>
+  </si>
+  <si>
+    <t>r&amp;w:rlxd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,7 +209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +389,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -521,8 +556,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -955,7 +991,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>arm!$G$2:$G$9</c15:sqref>
@@ -993,7 +1029,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000021-445A-4787-BCEA-7982FBFD2686}"/>
                   </c:ext>
@@ -1021,7 +1057,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>arm!$I$2:$I$9</c15:sqref>
@@ -1059,7 +1095,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000023-445A-4787-BCEA-7982FBFD2686}"/>
                   </c:ext>
@@ -1782,7 +1818,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>arm!$G$2:$G$9</c15:sqref>
@@ -1820,7 +1856,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-A7AE-4823-BF77-77F835A66E9F}"/>
                   </c:ext>
@@ -1848,7 +1884,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>arm!$I$2:$I$9</c15:sqref>
@@ -1886,7 +1922,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-A7AE-4823-BF77-77F835A66E9F}"/>
                   </c:ext>
@@ -2128,6 +2164,3029 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Barriers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>r&amp;w:plain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>barriers!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barriers!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34684292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39103281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30866115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33487535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34224422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28394158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22161765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26916865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E152-4856-ACD4-F54360F3E09A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>r&amp;w:cst</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>barriers!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barriers!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64890112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>492660345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>541092846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>529522742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>552816152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>544285654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>572273479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>559783545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E152-4856-ACD4-F54360F3E09A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>r:acq/w:rel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>barriers!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barriers!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64871983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>513044336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>555785849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>521832353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>556012886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>555470017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>556449126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>568912024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E152-4856-ACD4-F54360F3E09A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>r:cons/w:rel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>barriers!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barriers!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64830519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>494890469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>543206415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>547764331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>553675428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>552043396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>560695950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>557104773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E152-4856-ACD4-F54360F3E09A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>r&amp;w:rlxd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>barriers!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barriers!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22512727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25204943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23250596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21576192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21192507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20817842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23412039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27838474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E152-4856-ACD4-F54360F3E09A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1668559503"/>
+        <c:axId val="1513984319"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>barriers!$B$3:$B$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>barriers!$B$3:$B$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-E152-4856-ACD4-F54360F3E09A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1668559503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1513984319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1513984319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1668559503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Barriers</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>r&amp;r:plain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>barriers!$B$14:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barriers!$C$14:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>37050747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83245493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75488640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149902079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>297785589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>588377972</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1175653706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2342565804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3E6-493D-8549-CC62A0961188}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>r&amp;w:cst</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>barriers!$B$14:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barriers!$D$14:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64841628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>853507322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2167635118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4411031159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8860286175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17933268280</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36222742891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73656199471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3E6-493D-8549-CC62A0961188}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>r:acq/w:rel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>barriers!$B$14:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barriers!$E$14:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64885685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024283791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2298913752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4679633671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9465185940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18381362453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36580019179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73646965131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A3E6-493D-8549-CC62A0961188}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>r:cons/w:rel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>barriers!$B$14:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barriers!$F$14:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64855760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1042490241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2350279620</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4687182030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9225091012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18402923175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37389743218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72336900816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A3E6-493D-8549-CC62A0961188}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>r&amp;w:rlxd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>barriers!$B$14:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barriers!$G$14:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22342727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49977590</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78062916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157835993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296109828</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>596372276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1192288348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2353713656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A3E6-493D-8549-CC62A0961188}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1724680783"/>
+        <c:axId val="1513983359"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>barriers!$B$14:$B$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>barriers!$B$14:$B$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-A3E6-493D-8549-CC62A0961188}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1724680783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1513983359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1513983359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724680783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2205,6 +5264,239 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>471486</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644521E8-F84E-456F-E86A-3300EAC89047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74B57B4-656D-FC17-8230-7015F593333C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.33644</cdr:x>
+      <cdr:y>0.41439</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66156</cdr:x>
+      <cdr:y>0.49132</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225B3CA5-29A0-E2D3-E6E9-03B17BE8BA9C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2405064" y="1590675"/>
+          <a:ext cx="2324100" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>4-CPU ARM Cortex A76</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28886</cdr:x>
+      <cdr:y>0.4691</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66111</cdr:x>
+      <cdr:y>0.56461</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CBBB04-40EF-C755-F43B-9BED28469530}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2062162" y="1590675"/>
+          <a:ext cx="2657475" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>4-CPU ARM Cortex A76</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2503,11 +5795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,28 +5839,28 @@
         <v>391728653</v>
       </c>
       <c r="C2">
-        <f>B2*A2</f>
+        <f t="shared" ref="C2:C9" si="0">B2*A2</f>
         <v>391728653</v>
       </c>
       <c r="D2">
         <v>335765098</v>
       </c>
       <c r="E2">
-        <f>D2*A2</f>
+        <f t="shared" ref="E2:E9" si="1">D2*A2</f>
         <v>335765098</v>
       </c>
       <c r="F2">
         <v>304616840</v>
       </c>
       <c r="G2">
-        <f>F2*A2</f>
+        <f t="shared" ref="G2:G9" si="2">F2*A2</f>
         <v>304616840</v>
       </c>
       <c r="H2">
         <v>195901983</v>
       </c>
       <c r="I2">
-        <f>H2*A2</f>
+        <f t="shared" ref="I2:I9" si="3">H2*A2</f>
         <v>195901983</v>
       </c>
     </row>
@@ -2580,28 +5872,28 @@
         <v>1566944408</v>
       </c>
       <c r="C3">
-        <f>B3*A3</f>
+        <f t="shared" si="0"/>
         <v>3133888816</v>
       </c>
       <c r="D3">
         <v>962264267</v>
       </c>
       <c r="E3">
-        <f>D3*A3</f>
+        <f t="shared" si="1"/>
         <v>1924528534</v>
       </c>
       <c r="F3">
         <v>1293569432</v>
       </c>
       <c r="G3">
-        <f>F3*A3</f>
+        <f t="shared" si="2"/>
         <v>2587138864</v>
       </c>
       <c r="H3">
         <v>476774620</v>
       </c>
       <c r="I3">
-        <f>H3*A3</f>
+        <f t="shared" si="3"/>
         <v>953549240</v>
       </c>
     </row>
@@ -2613,28 +5905,28 @@
         <v>612992238</v>
       </c>
       <c r="C4">
-        <f>B4*A4</f>
+        <f t="shared" si="0"/>
         <v>2451968952</v>
       </c>
       <c r="D4">
         <v>783641221</v>
       </c>
       <c r="E4">
-        <f>D4*A4</f>
+        <f t="shared" si="1"/>
         <v>3134564884</v>
       </c>
       <c r="F4">
         <v>432387447</v>
       </c>
       <c r="G4">
-        <f>F4*A4</f>
+        <f t="shared" si="2"/>
         <v>1729549788</v>
       </c>
       <c r="H4">
         <v>235439963</v>
       </c>
       <c r="I4">
-        <f>H4*A4</f>
+        <f t="shared" si="3"/>
         <v>941759852</v>
       </c>
       <c r="L4" t="s">
@@ -2649,28 +5941,28 @@
         <v>307948406</v>
       </c>
       <c r="C5">
-        <f>B5*A5</f>
+        <f t="shared" si="0"/>
         <v>2463587248</v>
       </c>
       <c r="D5">
         <v>817023173</v>
       </c>
       <c r="E5">
-        <f>D5*A5</f>
+        <f t="shared" si="1"/>
         <v>6536185384</v>
       </c>
       <c r="F5">
         <v>206437024</v>
       </c>
       <c r="G5">
-        <f>F5*A5</f>
+        <f t="shared" si="2"/>
         <v>1651496192</v>
       </c>
       <c r="H5">
         <v>113586573</v>
       </c>
       <c r="I5">
-        <f>H5*A5</f>
+        <f t="shared" si="3"/>
         <v>908692584</v>
       </c>
     </row>
@@ -2682,28 +5974,28 @@
         <v>152801352</v>
       </c>
       <c r="C6">
-        <f>B6*A6</f>
+        <f t="shared" si="0"/>
         <v>2444821632</v>
       </c>
       <c r="D6">
         <v>566111544</v>
       </c>
       <c r="E6">
-        <f>D6*A6</f>
+        <f t="shared" si="1"/>
         <v>9057784704</v>
       </c>
       <c r="F6">
         <v>101065450</v>
       </c>
       <c r="G6">
-        <f>F6*A6</f>
+        <f t="shared" si="2"/>
         <v>1617047200</v>
       </c>
       <c r="H6">
         <v>54961626</v>
       </c>
       <c r="I6">
-        <f>H6*A6</f>
+        <f t="shared" si="3"/>
         <v>879386016</v>
       </c>
     </row>
@@ -2715,28 +6007,28 @@
         <v>76441163</v>
       </c>
       <c r="C7">
-        <f>B7*A7</f>
+        <f t="shared" si="0"/>
         <v>2446117216</v>
       </c>
       <c r="D7">
         <v>555493463</v>
       </c>
       <c r="E7">
-        <f>D7*A7</f>
+        <f t="shared" si="1"/>
         <v>17775790816</v>
       </c>
       <c r="F7">
         <v>49824142</v>
       </c>
       <c r="G7">
-        <f>F7*A7</f>
+        <f t="shared" si="2"/>
         <v>1594372544</v>
       </c>
       <c r="H7">
         <v>27041085</v>
       </c>
       <c r="I7">
-        <f>H7*A7</f>
+        <f t="shared" si="3"/>
         <v>865314720</v>
       </c>
     </row>
@@ -2748,28 +6040,28 @@
         <v>37117348</v>
       </c>
       <c r="C8">
-        <f>B8*A8</f>
+        <f t="shared" si="0"/>
         <v>2375510272</v>
       </c>
       <c r="D8">
         <v>495072239</v>
       </c>
       <c r="E8">
-        <f>D8*A8</f>
+        <f t="shared" si="1"/>
         <v>31684623296</v>
       </c>
       <c r="F8">
         <v>24972667</v>
       </c>
       <c r="G8">
-        <f>F8*A8</f>
+        <f t="shared" si="2"/>
         <v>1598250688</v>
       </c>
       <c r="H8">
         <v>13129261</v>
       </c>
       <c r="I8">
-        <f>H8*A8</f>
+        <f t="shared" si="3"/>
         <v>840272704</v>
       </c>
     </row>
@@ -2781,28 +6073,28 @@
         <v>18554308</v>
       </c>
       <c r="C9">
-        <f>B9*A9</f>
+        <f t="shared" si="0"/>
         <v>2374951424</v>
       </c>
       <c r="D9">
         <v>443209706</v>
       </c>
       <c r="E9">
-        <f>D9*A9</f>
+        <f t="shared" si="1"/>
         <v>56730842368</v>
       </c>
       <c r="F9">
         <v>12051590</v>
       </c>
       <c r="G9">
-        <f>F9*A9</f>
+        <f t="shared" si="2"/>
         <v>1542603520</v>
       </c>
       <c r="H9">
         <v>5941350</v>
       </c>
       <c r="I9">
-        <f>H9*A9</f>
+        <f t="shared" si="3"/>
         <v>760492800</v>
       </c>
     </row>
@@ -2810,4 +6102,393 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2328750-AD5C-4F90-A17E-149637E414EF}">
+  <dimension ref="B2:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>34684292</v>
+      </c>
+      <c r="D3">
+        <v>64890112</v>
+      </c>
+      <c r="E3">
+        <v>64871983</v>
+      </c>
+      <c r="F3">
+        <v>64830519</v>
+      </c>
+      <c r="G3">
+        <v>22512727</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>39103281</v>
+      </c>
+      <c r="D4">
+        <v>492660345</v>
+      </c>
+      <c r="E4">
+        <v>513044336</v>
+      </c>
+      <c r="F4">
+        <v>494890469</v>
+      </c>
+      <c r="G4">
+        <v>25204943</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>30866115</v>
+      </c>
+      <c r="D5">
+        <v>541092846</v>
+      </c>
+      <c r="E5">
+        <v>555785849</v>
+      </c>
+      <c r="F5">
+        <v>543206415</v>
+      </c>
+      <c r="G5">
+        <v>23250596</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>33487535</v>
+      </c>
+      <c r="D6">
+        <v>529522742</v>
+      </c>
+      <c r="E6">
+        <v>521832353</v>
+      </c>
+      <c r="F6">
+        <v>547764331</v>
+      </c>
+      <c r="G6">
+        <v>21576192</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>34224422</v>
+      </c>
+      <c r="D7">
+        <v>552816152</v>
+      </c>
+      <c r="E7">
+        <v>556012886</v>
+      </c>
+      <c r="F7">
+        <v>553675428</v>
+      </c>
+      <c r="G7">
+        <v>21192507</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>28394158</v>
+      </c>
+      <c r="D8">
+        <v>544285654</v>
+      </c>
+      <c r="E8">
+        <v>555470017</v>
+      </c>
+      <c r="F8">
+        <v>552043396</v>
+      </c>
+      <c r="G8">
+        <v>20817842</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>22161765</v>
+      </c>
+      <c r="D9">
+        <v>572273479</v>
+      </c>
+      <c r="E9">
+        <v>556449126</v>
+      </c>
+      <c r="F9">
+        <v>560695950</v>
+      </c>
+      <c r="G9">
+        <v>23412039</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>128</v>
+      </c>
+      <c r="C10">
+        <v>26916865</v>
+      </c>
+      <c r="D10">
+        <v>559783545</v>
+      </c>
+      <c r="E10">
+        <v>568912024</v>
+      </c>
+      <c r="F10">
+        <v>557104773</v>
+      </c>
+      <c r="G10">
+        <v>27838474</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>37050747</v>
+      </c>
+      <c r="D14">
+        <v>64841628</v>
+      </c>
+      <c r="E14">
+        <v>64885685</v>
+      </c>
+      <c r="F14">
+        <v>64855760</v>
+      </c>
+      <c r="G14">
+        <v>22342727</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>83245493</v>
+      </c>
+      <c r="D15">
+        <v>853507322</v>
+      </c>
+      <c r="E15">
+        <v>1024283791</v>
+      </c>
+      <c r="F15">
+        <v>1042490241</v>
+      </c>
+      <c r="G15">
+        <v>49977590</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>75488640</v>
+      </c>
+      <c r="D16">
+        <v>2167635118</v>
+      </c>
+      <c r="E16">
+        <v>2298913752</v>
+      </c>
+      <c r="F16">
+        <v>2350279620</v>
+      </c>
+      <c r="G16">
+        <v>78062916</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>149902079</v>
+      </c>
+      <c r="D17">
+        <v>4411031159</v>
+      </c>
+      <c r="E17">
+        <v>4679633671</v>
+      </c>
+      <c r="F17">
+        <v>4687182030</v>
+      </c>
+      <c r="G17">
+        <v>157835993</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>297785589</v>
+      </c>
+      <c r="D18">
+        <v>8860286175</v>
+      </c>
+      <c r="E18">
+        <v>9465185940</v>
+      </c>
+      <c r="F18">
+        <v>9225091012</v>
+      </c>
+      <c r="G18">
+        <v>296109828</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>588377972</v>
+      </c>
+      <c r="D19">
+        <v>17933268280</v>
+      </c>
+      <c r="E19">
+        <v>18381362453</v>
+      </c>
+      <c r="F19">
+        <v>18402923175</v>
+      </c>
+      <c r="G19">
+        <v>596372276</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>1175653706</v>
+      </c>
+      <c r="D20">
+        <v>36222742891</v>
+      </c>
+      <c r="E20">
+        <v>36580019179</v>
+      </c>
+      <c r="F20">
+        <v>37389743218</v>
+      </c>
+      <c r="G20">
+        <v>1192288348</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>128</v>
+      </c>
+      <c r="C21">
+        <v>2342565804</v>
+      </c>
+      <c r="D21">
+        <v>73656199471</v>
+      </c>
+      <c r="E21">
+        <v>73646965131</v>
+      </c>
+      <c r="F21">
+        <v>72336900816</v>
+      </c>
+      <c r="G21">
+        <v>2353713656</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>